--- a/Data/Input.xlsx
+++ b/Data/Input.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="7095" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="7095" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Valid" sheetId="1" r:id="rId1"/>
     <sheet name="Invalid" sheetId="2" r:id="rId2"/>
     <sheet name="Write" sheetId="3" r:id="rId3"/>
     <sheet name="new" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:P21"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Username</t>
   </si>
@@ -32,6 +33,42 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delhi </t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>kolkata</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>ClassOfTravel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economy </t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>First</t>
   </si>
 </sst>
 </file>
@@ -352,7 +389,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,4 +460,75 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>